--- a/Alura/formacaoDataScience/ExcelAndVBA/ExcelDomineOEditorDePlanilhas/PrimeiroCurso.xlsx
+++ b/Alura/formacaoDataScience/ExcelAndVBA/ExcelDomineOEditorDePlanilhas/PrimeiroCurso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\www\studySpace\Alura\formacaoDataScience\ExcelAndVBA\ExcelDomineOEditorDePlanilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2A6905-2F8F-4715-AE6E-DD9F40253F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B9B735-3F0B-4E3E-86BA-E3B031BE6687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82D03D71-6FFA-4D2F-8457-9F0FE07277BC}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Produtos</t>
   </si>
   <si>
-    <t>Sapato Social</t>
-  </si>
-  <si>
-    <t>Tênis Adulto</t>
-  </si>
-  <si>
     <t>Tênis infantil Vermelho</t>
   </si>
   <si>
@@ -54,6 +48,21 @@
   </si>
   <si>
     <t>Tênis infantil Rosa</t>
+  </si>
+  <si>
+    <t>Sapato Social Masculino</t>
+  </si>
+  <si>
+    <t>Sapato Social Feminino</t>
+  </si>
+  <si>
+    <t>Tênis Adulto Masculino</t>
+  </si>
+  <si>
+    <t>Tênis Adulto Feminino</t>
+  </si>
+  <si>
+    <t>Tamanho</t>
   </si>
 </sst>
 </file>
@@ -109,7 +118,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -405,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9242B07A-2F54-4E9F-B5FF-467D53591104}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,34 +425,104 @@
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Alura/formacaoDataScience/ExcelAndVBA/ExcelDomineOEditorDePlanilhas/PrimeiroCurso.xlsx
+++ b/Alura/formacaoDataScience/ExcelAndVBA/ExcelDomineOEditorDePlanilhas/PrimeiroCurso.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\www\studySpace\Alura\formacaoDataScience\ExcelAndVBA\ExcelDomineOEditorDePlanilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucasSilvaDantasAbra\www\studySpace\Alura\formacaoDataScience\ExcelAndVBA\ExcelDomineOEditorDePlanilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B9B735-3F0B-4E3E-86BA-E3B031BE6687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214B466F-158A-413D-8A94-BD7D58283893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82D03D71-6FFA-4D2F-8457-9F0FE07277BC}"/>
+    <workbookView xWindow="28680" yWindow="-6090" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{82D03D71-6FFA-4D2F-8457-9F0FE07277BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Produtos Adultos" sheetId="3" r:id="rId1"/>
+    <sheet name="Produtos infantis" sheetId="1" r:id="rId2"/>
+    <sheet name="Gráficos" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
-  <si>
-    <t>Produtos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Tênis infantil Vermelho</t>
   </si>
@@ -64,12 +63,48 @@
   <si>
     <t>Tamanho</t>
   </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Lista de Produto infantis</t>
+  </si>
+  <si>
+    <t>Lista de Produto Adultos</t>
+  </si>
+  <si>
+    <t>Quantidades</t>
+  </si>
+  <si>
+    <t>Preço Unitário</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>Desconto</t>
+  </si>
+  <si>
+    <t>Valor do Desconto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +112,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -94,14 +189,240 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -115,6 +436,2215 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Composição do Estoque </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Produtos infantis'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quantidades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DD90-4906-A005-0D118C6F357C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DD90-4906-A005-0D118C6F357C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DD90-4906-A005-0D118C6F357C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DD90-4906-A005-0D118C6F357C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DD90-4906-A005-0D118C6F357C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-DD90-4906-A005-0D118C6F357C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-DD90-4906-A005-0D118C6F357C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-DD90-4906-A005-0D118C6F357C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-DD90-4906-A005-0D118C6F357C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produtos infantis'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Tênis infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tênis infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tênis infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tênis infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tênis infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tênis infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tênis infantil Rosa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tênis infantil Rosa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tênis infantil Rosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Produtos infantis'!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-DD90-4906-A005-0D118C6F357C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8623529229788458E-2"/>
+          <c:y val="5.2157813141705381E-2"/>
+          <c:w val="0.94172969868925438"/>
+          <c:h val="0.34428211545622678"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Produtos infantis'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valor Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produtos infantis'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Tênis infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tênis infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tênis infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tênis infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tênis infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tênis infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tênis infantil Rosa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tênis infantil Rosa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tênis infantil Rosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Produtos infantis'!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>153.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.73000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.910000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>384.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242.73000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242.73000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161.82000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>242.73000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA4B-42F9-83C0-B5340DB71F29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1756615247"/>
+        <c:axId val="1756634799"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1756615247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756634799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1756634799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756615247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10E7469-EEED-8AB3-55C2-4B02B6DB1AFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6735D5-0E85-663B-25F9-68EB089C2EA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,119 +2943,701 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9242B07A-2F54-4E9F-B5FF-467D53591104}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F2F8D7-D384-404C-A337-572F353B5219}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.90625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.7265625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>39</v>
+      </c>
+      <c r="C3" s="15">
+        <v>123.5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>40</v>
+      </c>
+      <c r="C4" s="15">
+        <v>123.5</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>41</v>
+      </c>
+      <c r="C5" s="15">
+        <v>123.5</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>36</v>
+      </c>
+      <c r="C6" s="15">
+        <v>233.9</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>37</v>
+      </c>
+      <c r="C7" s="15">
+        <v>233.9</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>38</v>
+      </c>
+      <c r="C8" s="15">
+        <v>233.9</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>42</v>
+      </c>
+      <c r="C9" s="15">
+        <v>99.99</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7">
+        <v>37</v>
+      </c>
+      <c r="C10" s="16">
+        <v>99.99</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="18"/>
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="19">
+        <f>SUM(C3:C10)</f>
+        <v>1272.18</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9242B07A-2F54-4E9F-B5FF-467D53591104}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" activeCellId="1" sqref="A2:A11 E2:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.90625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="18.7265625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="5">
+        <v>27</v>
+      </c>
+      <c r="C3" s="14">
+        <v>85.5</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3*$C$13</f>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="14">
+        <f>(C3-D3)*E3</f>
+        <v>153.9</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>28</v>
+      </c>
+      <c r="C4" s="15">
+        <v>89.9</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" ref="D4:D11" si="0">C4*$C$13</f>
+        <v>8.99</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F11" si="1">(C4-D4)*E4</f>
+        <v>242.73000000000002</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>29</v>
+      </c>
+      <c r="C5" s="15">
+        <v>89.9</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="F5" s="14">
+        <f t="shared" si="1"/>
+        <v>80.910000000000011</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C6" s="15">
+        <v>85.5</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="0"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="1"/>
+        <v>384.75</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B7" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C7" s="15">
+        <v>89.9</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="1"/>
+        <v>242.73000000000002</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B8" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C8" s="15">
+        <v>89.9</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="1"/>
+        <v>242.73000000000002</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B9" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C9" s="15">
+        <v>85.5</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="1"/>
+        <v>76.95</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B10" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C10" s="15">
+        <v>89.9</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+      <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="F10" s="14">
+        <f t="shared" si="1"/>
+        <v>161.82000000000002</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C11" s="15">
+        <v>89.9</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+      <c r="E11" s="6">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="1"/>
+        <v>242.73000000000002</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="18"/>
+      <c r="B12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19">
+        <f>SUM(C3:C11)</f>
+        <v>795.9</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="17">
+        <f>SUM(E3:E11)</f>
+        <v>23</v>
+      </c>
+      <c r="F12" s="19">
+        <f>SUM(F3:F11)</f>
+        <v>1829.25</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="18"/>
+      <c r="B13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C13:F13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E34FAD-D519-49F2-8DDF-C0E30336AD54}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="A22:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>